--- a/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/all_nuclei_thalamus_control.xlsx
+++ b/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/all_nuclei_thalamus_control.xlsx
@@ -469,15 +469,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.12984194115634</v>
+        <v>0.04303957847894724</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.23, -0.0294]</t>
+          <t>[-0.0433, 0.129]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.01634335273320229</v>
+        <v>0.3279150314051249</v>
       </c>
     </row>
     <row r="3">
@@ -487,15 +487,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.004187217075540199</v>
+        <v>0.1808351155173635</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.0922, 0.0838]</t>
+          <t>[0.123, 0.239]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9255276628061502</v>
+        <v>2.019788246904337e-08</v>
       </c>
     </row>
     <row r="4">
@@ -505,15 +505,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.007514875612496134</v>
+        <v>0.1421137024889771</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.103, 0.0881]</t>
+          <t>[0.0661, 0.218]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9255276628061502</v>
+        <v>0.0008814444802811511</v>
       </c>
     </row>
     <row r="5">
@@ -523,15 +523,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1033537893023619</v>
+        <v>0.1130629972461522</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.203, -0.00397]</t>
+          <t>[0.0647, 0.161]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.05195568699909509</v>
+        <v>2.799711672666479e-05</v>
       </c>
     </row>
     <row r="6">
@@ -541,15 +541,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1417298147826682</v>
+        <v>0.09060745888904992</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.243, -0.0408]</t>
+          <t>[0.0346, 0.147]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.009993548874307158</v>
+        <v>0.003905849643516232</v>
       </c>
     </row>
     <row r="7">
@@ -559,15 +559,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2378365473769752</v>
+        <v>-0.04132969498070452</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.332, -0.144]</t>
+          <t>[-0.0776, -0.00511]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.634949284158867e-06</v>
+        <v>0.03631264730220065</v>
       </c>
     </row>
     <row r="8">
@@ -577,15 +577,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1868462444906379</v>
+        <v>-0.06963258446092549</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-0.291, -0.0829]</t>
+          <t>[-0.154, 0.015]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.0009014918715062107</v>
+        <v>0.1185158820484835</v>
       </c>
     </row>
     <row r="9">
@@ -595,15 +595,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.202449592636036</v>
+        <v>-0.06772110358514398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-0.284, -0.121]</t>
+          <t>[-0.129, -0.00597]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.634949284158867e-06</v>
+        <v>0.03958621187086381</v>
       </c>
     </row>
     <row r="10">
@@ -613,15 +613,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2057924714428736</v>
+        <v>-0.1029748399638</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-0.294, -0.118]</t>
+          <t>[-0.179, -0.0268]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.314007559428588e-05</v>
+        <v>0.01366368704472071</v>
       </c>
     </row>
     <row r="11">
@@ -631,15 +631,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2145591428653139</v>
+        <v>-0.06586182694156413</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-0.302, -0.127]</t>
+          <t>[-0.108, -0.0238]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6.634949284158867e-06</v>
+        <v>0.004405573111079763</v>
       </c>
     </row>
   </sheetData>
@@ -690,15 +690,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2874181872697673</v>
+        <v>0.05091021170458417</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.5, -0.0747]</t>
+          <t>[-0.0461, 0.148]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.01640974539538315</v>
+        <v>0.3030513341924396</v>
       </c>
     </row>
     <row r="3">
@@ -708,15 +708,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.005261015450288349</v>
+        <v>0.2253868929844086</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.18, 0.17]</t>
+          <t>[0.154, 0.297]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9528997403597753</v>
+        <v>5.645954521273807e-09</v>
       </c>
     </row>
     <row r="4">
@@ -726,15 +726,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07091673889169087</v>
+        <v>0.210556031192512</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.127, 0.269]</t>
+          <t>[0.125, 0.296]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.535131783098171</v>
+        <v>3.569131673766048e-06</v>
       </c>
     </row>
     <row r="5">
@@ -744,15 +744,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1874908604108564</v>
+        <v>0.166755550368592</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.381, 0.00566]</t>
+          <t>[0.101, 0.233]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.07134124163444759</v>
+        <v>2.60751100049986e-06</v>
       </c>
     </row>
     <row r="6">
@@ -762,15 +762,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2002053098293545</v>
+        <v>0.1921576444217757</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.398, -0.00194]</t>
+          <t>[0.122, 0.262]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.06829237136958687</v>
+        <v>3.195134438617917e-07</v>
       </c>
     </row>
     <row r="7">
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4792017026869621</v>
+        <v>-0.03055401001422155</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.664, -0.294]</t>
+          <t>[-0.0725, 0.0114]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.565411257428783e-06</v>
+        <v>0.1704138144349923</v>
       </c>
     </row>
     <row r="8">
@@ -798,15 +798,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3570846881333188</v>
+        <v>-0.18287749178065</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-0.58, -0.134]</t>
+          <t>[-0.285, -0.081]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.004332238347383927</v>
+        <v>0.0007676465786885998</v>
       </c>
     </row>
     <row r="9">
@@ -816,15 +816,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.376637293632429</v>
+        <v>-0.1016226957965113</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-0.553, -0.201]</t>
+          <t>[-0.179, -0.0247]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.0001039209080971137</v>
+        <v>0.01386329483397831</v>
       </c>
     </row>
     <row r="10">
@@ -834,15 +834,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1906047985497708</v>
+        <v>-0.08789389202414546</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-0.378, -0.00294]</t>
+          <t>[-0.174, -0.00147]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.06829237136958687</v>
+        <v>0.05780673679789403</v>
       </c>
     </row>
     <row r="11">
@@ -852,15 +852,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.4905831538746244</v>
+        <v>-0.1545041613708992</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-0.663, -0.318]</t>
+          <t>[-0.201, -0.108]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.160622290209888e-07</v>
+        <v>2.343615354681096e-09</v>
       </c>
     </row>
   </sheetData>
@@ -911,15 +911,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2978747364384635</v>
+        <v>-0.08804780464460647</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.393, -0.202]</t>
+          <t>[-0.167, -0.00944]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.75317738817723e-09</v>
+        <v>0.04032169143802847</v>
       </c>
     </row>
     <row r="3">
@@ -929,15 +929,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.147225211128815</v>
+        <v>0.08999342685716183</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.234, -0.0602]</t>
+          <t>[0.0124, 0.168]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.001197655446512526</v>
+        <v>0.03854697556381404</v>
       </c>
     </row>
     <row r="4">
@@ -947,15 +947,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09054026766357574</v>
+        <v>0.1191092863412357</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.183, 0.00173]</t>
+          <t>[0.0345, 0.204]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.05444107219340109</v>
+        <v>0.01183482675813404</v>
       </c>
     </row>
     <row r="5">
@@ -965,15 +965,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1978960463872108</v>
+        <v>0.09913784385853879</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.297, -0.099]</t>
+          <t>[0.0442, 0.154]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.0001383530351423216</v>
+        <v>0.004349027514148646</v>
       </c>
     </row>
     <row r="6">
@@ -983,15 +983,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2678681650109755</v>
+        <v>0.02456951306885724</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.361, -0.175]</t>
+          <t>[-0.0277, 0.0768]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.951225267184302e-08</v>
+        <v>0.355677530241812</v>
       </c>
     </row>
     <row r="7">
@@ -1001,15 +1001,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.342561961686819</v>
+        <v>-0.06414744149759709</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.439, -0.246]</t>
+          <t>[-0.106, -0.0224]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.561714380709468e-11</v>
+        <v>0.008980017597611419</v>
       </c>
     </row>
     <row r="8">
@@ -1019,15 +1019,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2965978654577609</v>
+        <v>-0.1266479261567026</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-0.397, -0.196]</t>
+          <t>[-0.209, -0.0447]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.796038296520213e-08</v>
+        <v>0.008980017597611419</v>
       </c>
     </row>
     <row r="9">
@@ -1037,15 +1037,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2674253181434171</v>
+        <v>-0.08136869510638858</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-0.346, -0.189]</t>
+          <t>[-0.138, -0.0252]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.639357008705509e-10</v>
+        <v>0.01158659316815725</v>
       </c>
     </row>
     <row r="10">
@@ -1055,15 +1055,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1196566194611041</v>
+        <v>0.05954917557380141</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-0.207, -0.0323]</t>
+          <t>[-0.0191, 0.138]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.008160069496935499</v>
+        <v>0.1526563226501249</v>
       </c>
     </row>
     <row r="11">
@@ -1073,15 +1073,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2698260429077724</v>
+        <v>-0.032671894587347</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-0.356, -0.184]</t>
+          <t>[-0.071, 0.00567]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.75317738817723e-09</v>
+        <v>0.1184290287247293</v>
       </c>
     </row>
   </sheetData>
@@ -1132,15 +1132,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.250059158810012</v>
+        <v>0.002354367629584164</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.361, -0.139]</t>
+          <t>[-0.0989, 0.104]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.711022750988737e-05</v>
+        <v>0.9867436837193346</v>
       </c>
     </row>
     <row r="3">
@@ -1150,15 +1150,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2830884326480563</v>
+        <v>-0.08460847285311494</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.397, -0.169]</t>
+          <t>[-0.174, 0.00446]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.915608714729807e-06</v>
+        <v>0.2482989259940913</v>
       </c>
     </row>
     <row r="4">
@@ -1168,15 +1168,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1981709595413333</v>
+        <v>-0.008856589226009681</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.325, -0.0709]</t>
+          <t>[-0.115, 0.0972]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.002342040165400519</v>
+        <v>0.9867436837193346</v>
       </c>
     </row>
     <row r="5">
@@ -1186,15 +1186,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3539859659220759</v>
+        <v>-0.05882242598165528</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.466, -0.242]</t>
+          <t>[-0.129, 0.0112]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.765702608662015e-09</v>
+        <v>0.2482989259940913</v>
       </c>
     </row>
     <row r="6">
@@ -1204,15 +1204,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3647912980472229</v>
+        <v>-0.07124328417061501</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.477, -0.253]</t>
+          <t>[-0.147, 0.00446]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.044182241455205e-09</v>
+        <v>0.2482989259940913</v>
       </c>
     </row>
     <row r="7">
@@ -1222,15 +1222,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3233933878614249</v>
+        <v>0.0430076705181802</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.422, -0.225]</t>
+          <t>[-0.00757, 0.0936]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.044182241455205e-09</v>
+        <v>0.2482989259940913</v>
       </c>
     </row>
     <row r="8">
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2377546369526135</v>
+        <v>0.06121013887457488</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-0.357, -0.119]</t>
+          <t>[-0.0461, 0.169]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.0001086952366814789</v>
+        <v>0.4155271776708028</v>
       </c>
     </row>
     <row r="9">
@@ -1258,15 +1258,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.242440969316927</v>
+        <v>0.04149860964111913</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-0.355, -0.13]</t>
+          <t>[-0.0356, 0.119]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.606903552945844e-05</v>
+        <v>0.4155271776708028</v>
       </c>
     </row>
     <row r="10">
@@ -1276,15 +1276,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2559696198677351</v>
+        <v>-0.0007374158472887027</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-0.364, -0.148]</t>
+          <t>[-0.0879, 0.0864]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6.54477697837992e-06</v>
+        <v>0.9867436837193346</v>
       </c>
     </row>
     <row r="11">
@@ -1294,15 +1294,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.3203149325810023</v>
+        <v>0.03873754495546387</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-0.42, -0.22]</t>
+          <t>[-0.0179, 0.0953]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.433920784216393e-09</v>
+        <v>0.3587524810399515</v>
       </c>
     </row>
   </sheetData>
@@ -1353,15 +1353,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1861576745976272</v>
+        <v>0.01165022384269102</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[0.103, 0.27]</t>
+          <t>[-0.0643, 0.0876]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.085758707334279e-05</v>
+        <v>0.8285462874434589</v>
       </c>
     </row>
     <row r="3">
@@ -1371,15 +1371,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1855357850922542</v>
+        <v>0.01234111628835689</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.106, 0.265]</t>
+          <t>[-0.0573, 0.082]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8.625287844381956e-06</v>
+        <v>0.8285462874434589</v>
       </c>
     </row>
     <row r="4">
@@ -1389,15 +1389,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1721504995983393</v>
+        <v>0.02288482592330724</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.0889, 0.255]</t>
+          <t>[-0.0487, 0.0945]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.272352529494542e-05</v>
+        <v>0.8285462874434589</v>
       </c>
     </row>
     <row r="5">
@@ -1407,15 +1407,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2162887372769816</v>
+        <v>-0.007704372082531804</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.138, 0.295]</t>
+          <t>[-0.0608, 0.0454]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.304582467083843e-07</v>
+        <v>0.8285462874434589</v>
       </c>
     </row>
     <row r="6">
@@ -1425,15 +1425,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2616163521745116</v>
+        <v>0.04170461306838654</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.171, 0.352]</t>
+          <t>[-0.0211, 0.104]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.190036545684906e-07</v>
+        <v>0.8285462874434589</v>
       </c>
     </row>
     <row r="7">
@@ -1443,15 +1443,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2372501958794483</v>
+        <v>0.004047724679494512</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[0.158, 0.317]</t>
+          <t>[-0.0327, 0.0408]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.454325333558396e-08</v>
+        <v>0.8285462874434589</v>
       </c>
     </row>
     <row r="8">
@@ -1461,15 +1461,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1847174552582597</v>
+        <v>0.0222070653709892</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[0.0908, 0.279]</t>
+          <t>[-0.0656, 0.11]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.000126130116512403</v>
+        <v>0.8285462874434589</v>
       </c>
     </row>
     <row r="9">
@@ -1479,15 +1479,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1928546444664182</v>
+        <v>0.0281898382887264</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[0.116, 0.27]</t>
+          <t>[-0.0306, 0.0869]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.827232788337937e-06</v>
+        <v>0.8285462874434589</v>
       </c>
     </row>
     <row r="10">
@@ -1497,15 +1497,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.180333453510986</v>
+        <v>0.03355416174177347</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[0.106, 0.255]</t>
+          <t>[-0.0336, 0.101]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5.3826215947959e-06</v>
+        <v>0.8285462874434589</v>
       </c>
     </row>
     <row r="11">
@@ -1515,15 +1515,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1796878646017996</v>
+        <v>-0.03038982554840436</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[0.0985, 0.261]</t>
+          <t>[-0.0725, 0.0117]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.103440980032391e-05</v>
+        <v>0.8285462874434589</v>
       </c>
     </row>
   </sheetData>
@@ -1574,15 +1574,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1251873606437406</v>
+        <v>0.02209961144722221</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[0.0454, 0.205]</t>
+          <t>[-0.0484, 0.0926]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.002696785560586508</v>
+        <v>0.7685522951799095</v>
       </c>
     </row>
     <row r="3">
@@ -1592,15 +1592,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1396412499389467</v>
+        <v>0.04033314416917207</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.0689, 0.21]</t>
+          <t>[-0.0175, 0.0982]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.000589627369225321</v>
+        <v>0.4287032043104126</v>
       </c>
     </row>
     <row r="4">
@@ -1610,15 +1610,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1234504325018136</v>
+        <v>0.03798840876632539</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.049, 0.198]</t>
+          <t>[-0.0249, 0.101]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.002012413006249741</v>
+        <v>0.4721203083651411</v>
       </c>
     </row>
     <row r="5">
@@ -1628,15 +1628,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1245430522825349</v>
+        <v>-0.004746939441799124</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.0479, 0.201]</t>
+          <t>[-0.0501, 0.0406]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.002148955428207758</v>
+        <v>0.9338793410178331</v>
       </c>
     </row>
     <row r="6">
@@ -1646,15 +1646,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.173656454323405</v>
+        <v>0.04650900309552621</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.0929, 0.254]</t>
+          <t>[-0.0051, 0.0981]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.0002857834942754854</v>
+        <v>0.3861548173746581</v>
       </c>
     </row>
     <row r="7">
@@ -1664,15 +1664,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1384567495033973</v>
+        <v>0.0006961825868771129</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[0.0645, 0.212]</t>
+          <t>[-0.0323, 0.0337]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.0006587051159043895</v>
+        <v>0.9669038672810712</v>
       </c>
     </row>
     <row r="8">
@@ -1682,15 +1682,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1112929756921336</v>
+        <v>0.007289386568905865</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[0.0305, 0.192]</t>
+          <t>[-0.0638, 0.0784]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.007791636091176008</v>
+        <v>0.9338793410178331</v>
       </c>
     </row>
     <row r="9">
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1246951433689584</v>
+        <v>0.02170986095978812</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[0.0518, 0.198]</t>
+          <t>[-0.0353, 0.0787]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.001684307836413676</v>
+        <v>0.757915676075232</v>
       </c>
     </row>
     <row r="10">
@@ -1718,15 +1718,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1332537390210586</v>
+        <v>0.04172632047756222</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[0.064, 0.203]</t>
+          <t>[-0.0181, 0.102]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.000589627369225321</v>
+        <v>0.4287032043104126</v>
       </c>
     </row>
     <row r="11">
@@ -1736,15 +1736,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07341955982773557</v>
+        <v>-0.05605323071351657</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[4.03e-05, 0.147]</t>
+          <t>[-0.0923, -0.0198]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.04987469619779381</v>
+        <v>0.02493139741635027</v>
       </c>
     </row>
   </sheetData>
@@ -1795,15 +1795,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1966247637970488</v>
+        <v>-0.003024010333211247</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[0.106, 0.287]</t>
+          <t>[-0.0812, 0.0751]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.843124214477592e-05</v>
+        <v>0.9954934228178237</v>
       </c>
     </row>
     <row r="3">
@@ -1813,15 +1813,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.181370233761736</v>
+        <v>-0.02102714717827714</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.0943, 0.268]</t>
+          <t>[-0.0965, 0.0545]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.286891099146316e-05</v>
+        <v>0.9910719448966885</v>
       </c>
     </row>
     <row r="4">
@@ -1831,15 +1831,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1742891486719588</v>
+        <v>-0.0002290819763734221</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.0828, 0.266]</t>
+          <t>[-0.0799, 0.0794]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0002038614104703729</v>
+        <v>0.9954934228178237</v>
       </c>
     </row>
     <row r="5">
@@ -1849,15 +1849,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2489710810094885</v>
+        <v>-0.008393162024253571</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.165, 0.333]</t>
+          <t>[-0.0663, 0.0495]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.792775462484599e-08</v>
+        <v>0.9910719448966885</v>
       </c>
     </row>
     <row r="6">
@@ -1867,15 +1867,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2785596485801626</v>
+        <v>0.02351187694794431</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.178, 0.379]</t>
+          <t>[-0.0439, 0.0909]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.519530424159757e-07</v>
+        <v>0.9910719448966885</v>
       </c>
     </row>
     <row r="7">
@@ -1885,15 +1885,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2712902422070061</v>
+        <v>0.006303065400933987</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[0.184, 0.358]</t>
+          <t>[-0.0356, 0.0482]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.784254513924024e-08</v>
+        <v>0.9910719448966885</v>
       </c>
     </row>
     <row r="8">
@@ -1903,15 +1903,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.207790920050576</v>
+        <v>0.03092593592331749</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[0.105, 0.31]</t>
+          <t>[-0.0628, 0.125]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8.958509123932097e-05</v>
+        <v>0.9910719448966885</v>
       </c>
     </row>
     <row r="9">
@@ -1921,15 +1921,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2086018981802342</v>
+        <v>0.02613790260894506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[0.124, 0.293]</t>
+          <t>[-0.0347, 0.087]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.283827309930854e-06</v>
+        <v>0.9910719448966885</v>
       </c>
     </row>
     <row r="10">
@@ -1939,15 +1939,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1787111264606167</v>
+        <v>0.01438092492729256</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[0.0958, 0.262]</t>
+          <t>[-0.0562, 0.085]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.918353204058556e-05</v>
+        <v>0.9910719448966885</v>
       </c>
     </row>
     <row r="11">
@@ -1957,15 +1957,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2363332071013529</v>
+        <v>0.006209316757709757</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[0.151, 0.322]</t>
+          <t>[-0.0402, 0.0526]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.519530424159757e-07</v>
+        <v>0.9910719448966885</v>
       </c>
     </row>
   </sheetData>
@@ -2016,15 +2016,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3559041796389221</v>
+        <v>0.05534720990440666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[0.251, 0.46]</t>
+          <t>[-0.0415, 0.152]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.310509113769997e-10</v>
+        <v>0.374627048106618</v>
       </c>
     </row>
     <row r="3">
@@ -2034,15 +2034,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2498741849395788</v>
+        <v>-0.08124349293097134</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.16, 0.34]</t>
+          <t>[-0.155, -0.00749]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.05036849527446e-07</v>
+        <v>0.1171988952367041</v>
       </c>
     </row>
     <row r="4">
@@ -2052,15 +2052,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2183530550808214</v>
+        <v>-0.07089139710789125</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.11, 0.327]</t>
+          <t>[-0.157, 0.015]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9.273368580970406e-05</v>
+        <v>0.2386181798542109</v>
       </c>
     </row>
     <row r="5">
@@ -2070,15 +2070,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3691646621890206</v>
+        <v>-0.04290798619588101</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.27, 0.468]</t>
+          <t>[-0.0969, 0.0111]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.662100424462928e-12</v>
+        <v>0.2386181798542109</v>
       </c>
     </row>
     <row r="6">
@@ -2088,15 +2088,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3733330895003667</v>
+        <v>-0.04579685140985605</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.274, 0.473]</t>
+          <t>[-0.115, 0.0237]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.662100424462928e-12</v>
+        <v>0.3270998967661609</v>
       </c>
     </row>
     <row r="7">
@@ -2106,15 +2106,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4220983020780282</v>
+        <v>0.01237680048114147</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[0.336, 0.509]</t>
+          <t>[-0.0372, 0.0619]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.393223951445376e-19</v>
+        <v>0.6238949892290835</v>
       </c>
     </row>
     <row r="8">
@@ -2124,15 +2124,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3512635578562283</v>
+        <v>0.1092312515926457</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[0.246, 0.456]</t>
+          <t>[0.00763, 0.211]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.423636287879355e-10</v>
+        <v>0.1171988952367041</v>
       </c>
     </row>
     <row r="9">
@@ -2142,15 +2142,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3067626249468846</v>
+        <v>0.03559001176116051</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[0.213, 0.401]</t>
+          <t>[-0.0372, 0.108]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5.332195542531581e-10</v>
+        <v>0.4218226643547419</v>
       </c>
     </row>
     <row r="10">
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2158772763094755</v>
+        <v>-0.03674758301094515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[0.118, 0.314]</t>
+          <t>[-0.119, 0.0457]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.074507032311693e-05</v>
+        <v>0.4240728365770821</v>
       </c>
     </row>
     <row r="11">
@@ -2178,15 +2178,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4034370454700136</v>
+        <v>0.07226770462238402</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[0.308, 0.498]</t>
+          <t>[0.0126, 0.132]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.313378237601177e-15</v>
+        <v>0.1171988952367041</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/all_nuclei_thalamus_control.xlsx
+++ b/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/all_nuclei_thalamus_control.xlsx
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04303957847894724</v>
+        <v>0.04303957847894641</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.3279150314051249</v>
+        <v>0.3279150314051338</v>
       </c>
     </row>
     <row r="3">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1808351155173635</v>
+        <v>0.1808351155173632</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.019788246904337e-08</v>
+        <v>2.019788246904403e-08</v>
       </c>
     </row>
     <row r="4">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1421137024889771</v>
+        <v>0.1421137024889769</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0008814444802811511</v>
+        <v>0.0008814444802811575</v>
       </c>
     </row>
     <row r="5">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1130629972461522</v>
+        <v>0.1130629972461514</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.799711672666479e-05</v>
+        <v>2.799711672666894e-05</v>
       </c>
     </row>
     <row r="6">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09060745888904992</v>
+        <v>0.09060745888904898</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.003905849643516232</v>
+        <v>0.003905849643516648</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.04132969498070452</v>
+        <v>-0.04132969498070586</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.03631264730220065</v>
+        <v>0.03631264730219343</v>
       </c>
     </row>
     <row r="8">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.06963258446092549</v>
+        <v>-0.06963258446092643</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.1185158820484835</v>
+        <v>0.1185158820484781</v>
       </c>
     </row>
     <row r="9">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.06772110358514398</v>
+        <v>-0.06772110358514472</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.03958621187086381</v>
+        <v>0.03958621187086129</v>
       </c>
     </row>
     <row r="10">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1029748399638</v>
+        <v>-0.1029748399638004</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.01366368704472071</v>
+        <v>0.01366368704472016</v>
       </c>
     </row>
     <row r="11">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.06586182694156413</v>
+        <v>-0.06586182694156524</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.004405573111079763</v>
+        <v>0.004405573111078961</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05091021170458417</v>
+        <v>0.05091021170458433</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.3030513341924396</v>
+        <v>0.3030513341924383</v>
       </c>
     </row>
     <row r="3">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2253868929844086</v>
+        <v>0.2253868929844088</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5.645954521273807e-09</v>
+        <v>5.645954521273765e-09</v>
       </c>
     </row>
     <row r="4">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.210556031192512</v>
+        <v>0.2105560311925122</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3.569131673766048e-06</v>
+        <v>3.569131673766027e-06</v>
       </c>
     </row>
     <row r="5">
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.166755550368592</v>
+        <v>0.1667555503685922</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1921576444217757</v>
+        <v>0.1921576444217758</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.195134438617917e-07</v>
+        <v>3.195134438617934e-07</v>
       </c>
     </row>
     <row r="7">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.03055401001422155</v>
+        <v>-0.03055401001422152</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.1704138144349923</v>
+        <v>0.1704138144349932</v>
       </c>
     </row>
     <row r="8">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.18287749178065</v>
+        <v>-0.1828774917806501</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.0007676465786885998</v>
+        <v>0.0007676465786886057</v>
       </c>
     </row>
     <row r="9">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1016226957965113</v>
+        <v>-0.1016226957965114</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.01386329483397831</v>
+        <v>0.01386329483397835</v>
       </c>
     </row>
     <row r="10">
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.08789389202414546</v>
+        <v>-0.08789389202414555</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.05780673679789403</v>
+        <v>0.05780673679789398</v>
       </c>
     </row>
     <row r="11">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1545041613708992</v>
+        <v>-0.1545041613708993</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.08804780464460647</v>
+        <v>-0.08804780464460832</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.04032169143802847</v>
+        <v>0.0403216914380229</v>
       </c>
     </row>
     <row r="3">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08999342685716183</v>
+        <v>0.08999342685716005</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.03854697556381404</v>
+        <v>0.03854697556381693</v>
       </c>
     </row>
     <row r="4">
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1191092863412357</v>
+        <v>0.1191092863412339</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.01183482675813404</v>
+        <v>0.01183482675813484</v>
       </c>
     </row>
     <row r="5">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09913784385853879</v>
+        <v>0.09913784385853555</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.004349027514148646</v>
+        <v>0.004349027514150083</v>
       </c>
     </row>
     <row r="6">
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02456951306885724</v>
+        <v>0.02456951306885449</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.355677530241812</v>
+        <v>0.3556775302418631</v>
       </c>
     </row>
     <row r="7">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.06414744149759709</v>
+        <v>-0.0641474414976002</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.008980017597611419</v>
+        <v>0.008980017597607309</v>
       </c>
     </row>
     <row r="8">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1266479261567026</v>
+        <v>-0.1266479261567048</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.008980017597611419</v>
+        <v>0.008980017597607309</v>
       </c>
     </row>
     <row r="9">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.08136869510638858</v>
+        <v>-0.08136869510639036</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.01158659316815725</v>
+        <v>0.01158659316815469</v>
       </c>
     </row>
     <row r="10">
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05954917557380141</v>
+        <v>0.05954917557379924</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.1526563226501249</v>
+        <v>0.1526563226501384</v>
       </c>
     </row>
     <row r="11">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.032671894587347</v>
+        <v>-0.03267189458735027</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.1184290287247293</v>
+        <v>0.1184290287246859</v>
       </c>
     </row>
   </sheetData>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.002354367629584164</v>
+        <v>0.002354367629584186</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9867436837193346</v>
+        <v>0.9867436837193322</v>
       </c>
     </row>
     <row r="3">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.08460847285311494</v>
+        <v>-0.08460847285311515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.2482989259940913</v>
+        <v>0.2482989259940889</v>
       </c>
     </row>
     <row r="4">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.008856589226009681</v>
+        <v>-0.008856589226009848</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9867436837193346</v>
+        <v>0.9867436837193322</v>
       </c>
     </row>
     <row r="5">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05882242598165528</v>
+        <v>-0.0588224259816555</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.2482989259940913</v>
+        <v>0.2482989259940889</v>
       </c>
     </row>
     <row r="6">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.07124328417061501</v>
+        <v>-0.07124328417061516</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.2482989259940913</v>
+        <v>0.2482989259940889</v>
       </c>
     </row>
     <row r="7">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0430076705181802</v>
+        <v>0.04300767051818029</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.2482989259940913</v>
+        <v>0.2482989259940889</v>
       </c>
     </row>
     <row r="8">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06121013887457488</v>
+        <v>0.06121013887457493</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.4155271776708028</v>
+        <v>0.415527177670803</v>
       </c>
     </row>
     <row r="9">
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04149860964111913</v>
+        <v>0.04149860964111916</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.4155271776708028</v>
+        <v>0.415527177670803</v>
       </c>
     </row>
     <row r="10">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0007374158472887027</v>
+        <v>-0.0007374158472888419</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9867436837193346</v>
+        <v>0.9867436837193322</v>
       </c>
     </row>
     <row r="11">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03873754495546387</v>
+        <v>0.03873754495546385</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.3587524810399515</v>
+        <v>0.3587524810399526</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01165022384269102</v>
+        <v>0.01165022384269076</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8285462874434589</v>
+        <v>0.8285462874434615</v>
       </c>
     </row>
     <row r="3">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01234111628835689</v>
+        <v>0.01234111628835673</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8285462874434589</v>
+        <v>0.8285462874434615</v>
       </c>
     </row>
     <row r="4">
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02288482592330724</v>
+        <v>0.02288482592330708</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8285462874434589</v>
+        <v>0.8285462874434615</v>
       </c>
     </row>
     <row r="5">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007704372082531804</v>
+        <v>-0.007704372082531883</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8285462874434589</v>
+        <v>0.8285462874434615</v>
       </c>
     </row>
     <row r="6">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04170461306838654</v>
+        <v>0.0417046130683864</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8285462874434589</v>
+        <v>0.8285462874434615</v>
       </c>
     </row>
     <row r="7">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.004047724679494512</v>
+        <v>0.004047724679494442</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8285462874434589</v>
+        <v>0.8285462874434615</v>
       </c>
     </row>
     <row r="8">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0222070653709892</v>
+        <v>0.02220706537098912</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8285462874434589</v>
+        <v>0.8285462874434615</v>
       </c>
     </row>
     <row r="9">
@@ -1479,7 +1479,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0281898382887264</v>
+        <v>0.02818983828872614</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8285462874434589</v>
+        <v>0.8285462874434615</v>
       </c>
     </row>
     <row r="10">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03355416174177347</v>
+        <v>0.03355416174177325</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8285462874434589</v>
+        <v>0.8285462874434615</v>
       </c>
     </row>
     <row r="11">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03038982554840436</v>
+        <v>-0.03038982554840443</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8285462874434589</v>
+        <v>0.8285462874434615</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02209961144722221</v>
+        <v>0.02209961144722239</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7685522951799095</v>
+        <v>0.7685522951799056</v>
       </c>
     </row>
     <row r="3">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04033314416917207</v>
+        <v>0.04033314416917202</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.4287032043104126</v>
+        <v>0.4287032043104149</v>
       </c>
     </row>
     <row r="4">
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03798840876632539</v>
+        <v>0.03798840876632537</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4721203083651411</v>
+        <v>0.4721203083651429</v>
       </c>
     </row>
     <row r="5">
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004746939441799124</v>
+        <v>-0.00474693944179912</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9338793410178331</v>
+        <v>0.9338793410178312</v>
       </c>
     </row>
     <row r="6">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04650900309552621</v>
+        <v>0.04650900309552626</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.3861548173746581</v>
+        <v>0.3861548173746585</v>
       </c>
     </row>
     <row r="7">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0006961825868771129</v>
+        <v>0.0006961825868772552</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9669038672810712</v>
+        <v>0.9669038672810646</v>
       </c>
     </row>
     <row r="8">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.007289386568905865</v>
+        <v>0.007289386568905962</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9338793410178331</v>
+        <v>0.9338793410178312</v>
       </c>
     </row>
     <row r="9">
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02170986095978812</v>
+        <v>0.0217098609597882</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.757915676075232</v>
+        <v>0.7579156760752302</v>
       </c>
     </row>
     <row r="10">
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04172632047756222</v>
+        <v>0.04172632047756229</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4287032043104126</v>
+        <v>0.4287032043104149</v>
       </c>
     </row>
     <row r="11">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05605323071351657</v>
+        <v>-0.05605323071351653</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.02493139741635027</v>
+        <v>0.02493139741635073</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.003024010333211247</v>
+        <v>-0.00302401033321105</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9954934228178237</v>
+        <v>0.9954934228178234</v>
       </c>
     </row>
     <row r="3">
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.02102714717827714</v>
+        <v>-0.02102714717827716</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9910719448966885</v>
+        <v>0.9910719448966895</v>
       </c>
     </row>
     <row r="4">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0002290819763734221</v>
+        <v>-0.000229081976373436</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9954934228178237</v>
+        <v>0.9954934228178234</v>
       </c>
     </row>
     <row r="5">
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008393162024253571</v>
+        <v>-0.008393162024253709</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9910719448966885</v>
+        <v>0.9910719448966895</v>
       </c>
     </row>
     <row r="6">
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02351187694794431</v>
+        <v>0.0235118769479442</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9910719448966885</v>
+        <v>0.9910719448966895</v>
       </c>
     </row>
     <row r="7">
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006303065400933987</v>
+        <v>0.006303065400934019</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9910719448966885</v>
+        <v>0.9910719448966895</v>
       </c>
     </row>
     <row r="8">
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03092593592331749</v>
+        <v>0.03092593592331748</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9910719448966885</v>
+        <v>0.9910719448966895</v>
       </c>
     </row>
     <row r="9">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02613790260894506</v>
+        <v>0.02613790260894517</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9910719448966885</v>
+        <v>0.9910719448966895</v>
       </c>
     </row>
     <row r="10">
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01438092492729256</v>
+        <v>0.01438092492729245</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9910719448966885</v>
+        <v>0.9910719448966895</v>
       </c>
     </row>
     <row r="11">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.006209316757709757</v>
+        <v>0.006209316757709735</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9910719448966885</v>
+        <v>0.9910719448966895</v>
       </c>
     </row>
   </sheetData>
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05534720990440666</v>
+        <v>0.05534720990440656</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.374627048106618</v>
+        <v>0.3746270481066193</v>
       </c>
     </row>
     <row r="3">
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.08124349293097134</v>
+        <v>-0.08124349293097168</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.1171988952367041</v>
+        <v>0.1171988952367047</v>
       </c>
     </row>
     <row r="4">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07089139710789125</v>
+        <v>-0.07089139710789148</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.2386181798542109</v>
+        <v>0.2386181798542066</v>
       </c>
     </row>
     <row r="5">
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04290798619588101</v>
+        <v>-0.04290798619588129</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.2386181798542109</v>
+        <v>0.2386181798542066</v>
       </c>
     </row>
     <row r="6">
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.04579685140985605</v>
+        <v>-0.04579685140985618</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.3270998967661609</v>
+        <v>0.3270998967661594</v>
       </c>
     </row>
     <row r="7">
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01237680048114147</v>
+        <v>0.01237680048114141</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6238949892290835</v>
+        <v>0.6238949892290852</v>
       </c>
     </row>
     <row r="8">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.1171988952367041</v>
+        <v>0.1171988952367047</v>
       </c>
     </row>
     <row r="9">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03559001176116051</v>
+        <v>0.03559001176116042</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.4218226643547419</v>
+        <v>0.4218226643547437</v>
       </c>
     </row>
     <row r="10">
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.03674758301094515</v>
+        <v>-0.03674758301094534</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4240728365770821</v>
+        <v>0.4240728365770797</v>
       </c>
     </row>
     <row r="11">
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07226770462238402</v>
+        <v>0.07226770462238394</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.1171988952367041</v>
+        <v>0.1171988952367047</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/all_nuclei_thalamus_control.xlsx
+++ b/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/all_nuclei_thalamus_control.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ci</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p_fdr</t>
         </is>
       </c>
     </row>
@@ -468,16 +468,20 @@
           <t>AV_2</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.04303957847894641</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.0433, 0.129]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3279150314051338</v>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[-0.0432, 0.129]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -486,16 +490,20 @@
           <t>VA_4</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.1808351155173632</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>8.9e-09</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>[0.123, 0.239]</t>
         </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2.019788246904403e-08</v>
       </c>
     </row>
     <row r="4">
@@ -504,16 +512,20 @@
           <t>VLa_5</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.1421137024889769</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.0661, 0.218]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0008814444802811575</v>
+          <t>0.00078</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[0.0664, 0.218]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -522,16 +534,20 @@
           <t>VLP_6</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.1130629972461514</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.0647, 0.161]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2.799711672666894e-05</v>
+          <t>2e-05</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[0.0651, 0.161]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -540,16 +556,20 @@
           <t>VPL_7</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.09060745888904898</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.0346, 0.147]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.003905849643516648</v>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[0.0357, 0.147]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -558,16 +578,20 @@
           <t>Pul_8</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>-0.04132969498070586</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.0417</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.0776, -0.00511]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03631264730219343</v>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[-0.0778, -0.0056]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -576,16 +600,20 @@
           <t>LGN_9</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>-0.06963258446092643</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.0685</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-0.154, 0.015]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1185158820484781</v>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[-0.153, 0.0158]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -594,16 +622,20 @@
           <t>MGN_10</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>-0.06772110358514472</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.0691</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-0.129, -0.00597]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.03958621187086129</v>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[-0.131, -0.00753]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -612,16 +644,20 @@
           <t>CM_11</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>-0.1029748399638004</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-0.1027</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-0.179, -0.0268]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.01366368704472016</v>
+          <t>0.014</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[-0.179, -0.0267]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -630,16 +666,20 @@
           <t>MD_Pf_12</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>-0.06586182694156524</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-0.0660</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-0.108, -0.0238]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.004405573111078961</v>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[-0.108, -0.0241]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -674,12 +714,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ci</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p_fdr</t>
         </is>
       </c>
     </row>
@@ -689,16 +729,20 @@
           <t>AV_2</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.05091021170458433</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.0461, 0.148]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3030513341924383</v>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[-0.0459, 0.148]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -707,16 +751,20 @@
           <t>VA_4</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.2253868929844088</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.154, 0.297]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>5.645954521273765e-09</v>
+          <t>2.2e-09</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[0.156, 0.298]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -725,16 +773,20 @@
           <t>VLa_5</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.2105560311925122</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.125, 0.296]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>3.569131673766027e-06</v>
+          <t>2.5e-06</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[0.126, 0.297]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -743,16 +795,20 @@
           <t>VLP_6</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.1667555503685922</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>1.8e-06</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>[0.101, 0.233]</t>
         </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2.60751100049986e-06</v>
       </c>
     </row>
     <row r="6">
@@ -761,16 +817,20 @@
           <t>VPL_7</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.1921576444217758</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.122, 0.262]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>3.195134438617934e-07</v>
+          <t>2.2e-07</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[0.122, 0.261]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -779,16 +839,20 @@
           <t>Pul_8</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>-0.03055401001422152</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.0311</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.0725, 0.0114]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1704138144349932</v>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[-0.073, 0.0109]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -797,16 +861,20 @@
           <t>LGN_9</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>-0.1828774917806501</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.1831</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-0.285, -0.081]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0007676465786886057</v>
+          <t>0.00069</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[-0.285, -0.0815]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -815,16 +883,20 @@
           <t>MGN_10</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>-0.1016226957965114</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.1008</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-0.179, -0.0247]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.01386329483397835</v>
+          <t>0.014</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[-0.178, -0.0241]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -833,16 +905,20 @@
           <t>CM_11</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>-0.08789389202414555</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-0.0876</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-0.174, -0.00147]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.05780673679789398</v>
+          <t>0.058</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[-0.174, -0.00134]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -851,16 +927,20 @@
           <t>MD_Pf_12</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>-0.1545041613708993</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-0.1546</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>9.2e-10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>[-0.201, -0.108]</t>
         </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2.343615354681096e-09</v>
       </c>
     </row>
   </sheetData>
@@ -895,12 +975,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ci</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p_fdr</t>
         </is>
       </c>
     </row>
@@ -910,16 +990,20 @@
           <t>AV_2</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-0.08804780464460832</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-0.0878</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.167, -0.00944]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0403216914380229</v>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[-0.166, -0.00941]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -928,16 +1012,20 @@
           <t>VA_4</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.08999342685716005</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.0124, 0.168]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03854697556381693</v>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[0.0116, 0.166]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -946,16 +1034,20 @@
           <t>VLa_5</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.1191092863412339</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.0345, 0.204]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01183482675813484</v>
+          <t>0.012</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[0.0343, 0.203]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -964,16 +1056,20 @@
           <t>VLP_6</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.09913784385853555</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.0442, 0.154]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.004349027514150083</v>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[0.0439, 0.153]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -982,16 +1078,20 @@
           <t>VPL_7</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.02456951306885449</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.0277, 0.0768]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3556775302418631</v>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[-0.0283, 0.0758]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1000,16 +1100,20 @@
           <t>Pul_8</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>-0.0641474414976002</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.0634</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.106, -0.0224]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.008980017597607309</v>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[-0.105, -0.0218]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1018,16 +1122,20 @@
           <t>LGN_9</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>-0.1266479261567048</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.1278</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-0.209, -0.0447]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.008980017597607309</v>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[-0.21, -0.046]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1036,16 +1144,20 @@
           <t>MGN_10</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>-0.08136869510639036</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.0802</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-0.138, -0.0252]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.01158659316815469</v>
+          <t>0.012</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[-0.136, -0.0241]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1054,16 +1166,20 @@
           <t>CM_11</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.05954917557379924</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-0.0191, 0.138]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1526563226501384</v>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[-0.0196, 0.137]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1072,16 +1188,20 @@
           <t>MD_Pf_12</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>-0.03267189458735027</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-0.0325</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-0.071, 0.00567]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.1184290287246859</v>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[-0.0707, 0.00579]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1116,12 +1236,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ci</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p_fdr</t>
         </is>
       </c>
     </row>
@@ -1131,16 +1251,20 @@
           <t>AV_2</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.002354367629584186</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.0989, 0.104]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9867436837193322</v>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[-0.0987, 0.103]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1149,16 +1273,20 @@
           <t>VA_4</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.08460847285311515</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-0.0859</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.174, 0.00446]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2482989259940889</v>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[-0.175, 0.00311]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1167,16 +1295,20 @@
           <t>VLa_5</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-0.008856589226009848</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-0.0094</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.115, 0.0972]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9867436837193322</v>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[-0.115, 0.0964]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1185,16 +1317,20 @@
           <t>VLP_6</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.0588224259816555</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-0.0589</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.129, 0.0112]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2482989259940889</v>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[-0.129, 0.0108]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1203,16 +1339,20 @@
           <t>VPL_7</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>-0.07124328417061516</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-0.0704</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.147, 0.00446]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2482989259940889</v>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[-0.146, 0.0051]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1221,16 +1361,20 @@
           <t>Pul_8</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.04300767051818029</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.00757, 0.0936]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.2482989259940889</v>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[-0.00688, 0.094]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1239,16 +1383,20 @@
           <t>LGN_9</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.06121013887457493</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-0.0461, 0.169]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.415527177670803</v>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[-0.0456, 0.168]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1257,16 +1405,20 @@
           <t>MGN_10</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.04149860964111916</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-0.0356, 0.119]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.415527177670803</v>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[-0.0364, 0.118]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1275,16 +1427,20 @@
           <t>CM_11</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>-0.0007374158472888419</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-0.0011</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-0.0879, 0.0864]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9867436837193322</v>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[-0.0881, 0.0858]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1293,16 +1449,20 @@
           <t>MD_Pf_12</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.03873754495546385</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-0.0179, 0.0953]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.3587524810399526</v>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[-0.0178, 0.0951]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1337,12 +1497,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ci</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p_fdr</t>
         </is>
       </c>
     </row>
@@ -1352,16 +1512,20 @@
           <t>AV_2</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.01165022384269076</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-0.1329</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.0643, 0.0876]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8285462874434615</v>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[-0.367, 0.101]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1370,16 +1534,20 @@
           <t>VA_4</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.01234111628835673</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.0573, 0.082]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8285462874434615</v>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[-0.0481, 0.369]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1388,16 +1556,20 @@
           <t>VLa_5</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.02288482592330708</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.0487, 0.0945]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8285462874434615</v>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[-0.0577, 0.378]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1406,16 +1578,20 @@
           <t>VLP_6</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.007704372082531883</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.0608, 0.0454]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8285462874434615</v>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[-0.115, 0.239]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1424,16 +1600,20 @@
           <t>VPL_7</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.0417046130683864</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.0211, 0.104]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8285462874434615</v>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[-0.209, 0.209]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1442,16 +1622,20 @@
           <t>Pul_8</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.004047724679494442</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.1086</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.0327, 0.0408]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8285462874434615</v>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[-0.229, 0.0117]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1460,16 +1644,20 @@
           <t>LGN_9</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.02220706537098912</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-0.0656, 0.11]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.8285462874434615</v>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[-0.26, 0.351]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1478,16 +1666,20 @@
           <t>MGN_10</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.02818983828872614</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-0.0306, 0.0869]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.8285462874434615</v>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[-0.166, 0.193]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1496,16 +1688,20 @@
           <t>CM_11</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.03355416174177325</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.2398</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-0.0336, 0.101]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.8285462874434615</v>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[0.0266, 0.453]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1514,16 +1710,20 @@
           <t>MD_Pf_12</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>-0.03038982554840443</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-0.0759</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-0.0725, 0.0117]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.8285462874434615</v>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[-0.222, 0.0704]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1558,12 +1758,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ci</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p_fdr</t>
         </is>
       </c>
     </row>
@@ -1573,16 +1773,20 @@
           <t>AV_2</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.02209961144722239</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-0.0139</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.0484, 0.0926]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7685522951799056</v>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[-0.208, 0.181]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1591,16 +1795,20 @@
           <t>VA_4</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.04033314416917202</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.0175, 0.0982]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4287032043104149</v>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[0.0547, 0.347]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1609,16 +1817,20 @@
           <t>VLa_5</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.03798840876632537</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.0249, 0.101]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4721203083651429</v>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[-0.0147, 0.319]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1627,16 +1839,20 @@
           <t>VLP_6</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.00474693944179912</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.0501, 0.0406]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9338793410178312</v>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[-0.0787, 0.176]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1645,16 +1861,20 @@
           <t>VPL_7</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.04650900309552626</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.0051, 0.0981]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3861548173746585</v>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[-0.0867, 0.205]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1663,16 +1883,20 @@
           <t>Pul_8</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.0006961825868772552</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.0697</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.0323, 0.0337]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9669038672810646</v>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[-0.165, 0.0251]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1681,16 +1905,20 @@
           <t>LGN_9</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.007289386568905962</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.0242</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-0.0638, 0.0784]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9338793410178312</v>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[-0.222, 0.174]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1699,16 +1927,20 @@
           <t>MGN_10</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.0217098609597882</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-0.0353, 0.0787]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.7579156760752302</v>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[-0.154, 0.154]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1717,16 +1949,20 @@
           <t>CM_11</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.04172632047756229</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-0.0181, 0.102]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.4287032043104149</v>
+          <t>0.087</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[0.0222, 0.351]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1735,16 +1971,20 @@
           <t>MD_Pf_12</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>-0.05605323071351653</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-0.1709</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-0.0923, -0.0198]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.02493139741635073</v>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[-0.269, -0.0731]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1779,12 +2019,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ci</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p_fdr</t>
         </is>
       </c>
     </row>
@@ -1794,16 +2034,20 @@
           <t>AV_2</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-0.00302401033321105</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-0.1093</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.0812, 0.0751]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9954934228178234</v>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[-0.26, 0.041]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1812,16 +2056,20 @@
           <t>VA_4</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.02102714717827716</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-0.0183</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.0965, 0.0545]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9910719448966895</v>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[-0.161, 0.124]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1830,16 +2078,20 @@
           <t>VLa_5</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-0.000229081976373436</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.0799, 0.0794]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9954934228178234</v>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[-0.138, 0.18]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1848,16 +2100,20 @@
           <t>VLP_6</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.008393162024253709</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.0663, 0.0495]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9910719448966895</v>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[-0.0977, 0.131]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1866,16 +2122,20 @@
           <t>VPL_7</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.0235118769479442</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-0.0481</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.0439, 0.0909]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9910719448966895</v>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[-0.177, 0.0804]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1884,16 +2144,20 @@
           <t>Pul_8</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.006303065400934019</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.0417</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.0356, 0.0482]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9910719448966895</v>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[-0.129, 0.0451]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1902,16 +2166,20 @@
           <t>LGN_9</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.03092593592331748</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-0.0628, 0.125]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9910719448966895</v>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[-0.125, 0.248]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1920,16 +2188,20 @@
           <t>MGN_10</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.02613790260894517</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-0.0347, 0.087]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.9910719448966895</v>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[-0.113, 0.137]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1938,16 +2210,20 @@
           <t>CM_11</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.01438092492729245</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-0.0562, 0.085]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9910719448966895</v>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[-0.0734, 0.204]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1956,16 +2232,20 @@
           <t>MD_Pf_12</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.006209316757709735</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-0.0402, 0.0526]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.9910719448966895</v>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[-0.0258, 0.167]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2000,12 +2280,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ci</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p_fdr</t>
         </is>
       </c>
     </row>
@@ -2015,16 +2295,20 @@
           <t>AV_2</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.05534720990440656</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.0415, 0.152]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3746270481066193</v>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[-0.0414, 0.152]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -2033,16 +2317,20 @@
           <t>VA_4</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.08124349293097168</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-0.0811</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.155, -0.00749]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1171988952367047</v>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[-0.155, -0.00739]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -2051,16 +2339,20 @@
           <t>VLa_5</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-0.07089139710789148</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-0.0708</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.157, 0.015]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2386181798542066</v>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[-0.156, 0.0149]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -2069,16 +2361,20 @@
           <t>VLP_6</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.04290798619588129</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-0.0428</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.0969, 0.0111]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2386181798542066</v>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[-0.0967, 0.0111]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2087,16 +2383,20 @@
           <t>VPL_7</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>-0.04579685140985618</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-0.0457</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.115, 0.0237]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3270998967661594</v>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[-0.115, 0.0235]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2105,16 +2405,20 @@
           <t>Pul_8</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.01237680048114141</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.0372, 0.0619]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.6238949892290852</v>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[-0.0374, 0.0617]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2123,16 +2427,20 @@
           <t>LGN_9</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.1092312515926457</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[0.00763, 0.211]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1171988952367047</v>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[0.00815, 0.211]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2141,16 +2449,20 @@
           <t>MGN_10</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.03559001176116042</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-0.0372, 0.108]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.4218226643547437</v>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[-0.037, 0.108]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2159,16 +2471,20 @@
           <t>CM_11</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>-0.03674758301094534</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-0.0366</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>[-0.119, 0.0457]</t>
         </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.4240728365770797</v>
       </c>
     </row>
     <row r="11">
@@ -2177,16 +2493,20 @@
           <t>MD_Pf_12</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.07226770462238394</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[0.0126, 0.132]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.1171988952367047</v>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[0.0128, 0.132]</t>
+        </is>
       </c>
     </row>
   </sheetData>
